--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdptlab.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4308428026039726</v>
+        <v>0.4308428023943353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5512810165315727</v>
+        <v>0.5512810169935485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.699668692842355</v>
+        <v>0.6996686930772631</v>
       </c>
       <c r="F2" t="n">
-        <v>1.053304404836988</v>
+        <v>1.053304404503535</v>
       </c>
       <c r="G2" t="n">
-        <v>1.264510359385297</v>
+        <v>1.264510359237516</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_gdptlab.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4308428023943353</v>
+        <v>0.4308428024767466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5512810169935485</v>
+        <v>0.5512810165706916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6996686930772631</v>
+        <v>0.6996686927948342</v>
       </c>
       <c r="F2" t="n">
-        <v>1.053304404503535</v>
+        <v>1.053304404928877</v>
       </c>
       <c r="G2" t="n">
-        <v>1.264510359237516</v>
+        <v>1.264510359435544</v>
       </c>
     </row>
   </sheetData>
